--- a/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table20.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/Table20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb135/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1162385-FBD5-D942-8BE3-B0663AC42B38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ACE9AC-276F-5A44-A9BA-350CA24AE374}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23120" yWindow="800" windowWidth="16220" windowHeight="26380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23120" yWindow="600" windowWidth="16220" windowHeight="26380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>Value</t>
   </si>
@@ -566,13 +566,12 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
@@ -593,8 +592,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2">
         <v>45248855</v>
